--- a/clinical targets_focus groups/focus groups .xlsx
+++ b/clinical targets_focus groups/focus groups .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C92037-DABD-4057-A785-13A556D11E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E5F19B-3EC8-4280-8648-727AB01E1906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="375" windowWidth="14355" windowHeight="14265" firstSheet="2" activeTab="2" xr2:uid="{4B646342-88D9-4C81-8312-06B8DDE3E1C4}"/>
+    <workbookView xWindow="9465" yWindow="2325" windowWidth="20790" windowHeight="17940" activeTab="3" xr2:uid="{4B646342-88D9-4C81-8312-06B8DDE3E1C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>from</t>
   </si>
@@ -145,6 +145,39 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>2.Information and data</t>
+  </si>
+  <si>
+    <t>5.Increased self-awareness</t>
+  </si>
+  <si>
+    <t>Perceived effectiveness and evidence-based advice</t>
+  </si>
+  <si>
+    <t>Modularity and personalised experience</t>
+  </si>
+  <si>
+    <t>Discreetness and stigma</t>
+  </si>
+  <si>
+    <t>Clinician workload and data management</t>
+  </si>
+  <si>
+    <t>Self-autonomy</t>
+  </si>
+  <si>
+    <t>Therapeutic alliance and Replacing Human Interaction</t>
+  </si>
+  <si>
+    <t>Self-reflection and trigger identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive and negative reinforcement </t>
+  </si>
+  <si>
+    <t>Rumination and health anxiety</t>
   </si>
 </sst>
 </file>
@@ -225,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -236,6 +269,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2386E12-BF76-4728-BA4D-928FF94341C2}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,271 +604,376 @@
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C2" s="7"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C6" s="7"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="7"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="7"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C12" s="7"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C13" s="7"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C24" s="7"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C28" s="7"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
+      <c r="C31" s="7"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -837,7 +984,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74D1457-195B-4657-B2B1-1439AB5F7E93}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FE95E5-BBC6-4E31-9BB2-B21C7674C1AF}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1235,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <f>SUM(C6:G6)</f>
+        <f t="shared" ref="I6:I26" si="1">SUM(C6:G6)</f>
         <v>7</v>
       </c>
     </row>
@@ -1256,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1274,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="I8">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -1301,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1316,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="I10">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1331,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="I11">
-        <f>SUM(C11:G11)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1352,7 +1499,7 @@
         <v>8</v>
       </c>
       <c r="I12">
-        <f>SUM(C12:G12)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -1367,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <f>SUM(C13:G13)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1382,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <f>SUM(C14:G14)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1397,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="I15">
-        <f>SUM(C15:G15)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1421,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <f>SUM(C16:G16)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -1439,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <f>SUM(C17:G17)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1454,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <f>SUM(C18:G18)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1478,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <f>SUM(C19:G19)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -1493,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <f>SUM(C20:G20)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -1508,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="I21">
-        <f>SUM(C21:G21)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1523,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <f>SUM(C22:G22)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -1541,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <f>SUM(C23:G23)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -1556,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="I24">
-        <f>SUM(C24:G24)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -1574,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="I25">
-        <f>SUM(C25:G25)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1595,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="I26">
-        <f>SUM(C26:G26)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -1606,21 +1753,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A099E3716AEEB49AE65181D89952D60" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e0640a2eba68e02c2253d5e043f85ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f295ef53-7e0d-458e-b3a3-4d2fb9a7b0f6" xmlns:ns4="64bb126b-0abd-4602-b3fc-361caceedff2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04551ca60d7ee165fdbb5f1fd2bb5df2" ns3:_="" ns4:_="">
     <xsd:import namespace="f295ef53-7e0d-458e-b3a3-4d2fb9a7b0f6"/>
@@ -1843,10 +1975,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA12AE58-18F6-4427-B163-91AAC52F47DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0DFB26-2189-41B5-8733-833CB20B80B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f295ef53-7e0d-458e-b3a3-4d2fb9a7b0f6"/>
+    <ds:schemaRef ds:uri="64bb126b-0abd-4602-b3fc-361caceedff2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1869,20 +2027,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0DFB26-2189-41B5-8733-833CB20B80B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA12AE58-18F6-4427-B163-91AAC52F47DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f295ef53-7e0d-458e-b3a3-4d2fb9a7b0f6"/>
-    <ds:schemaRef ds:uri="64bb126b-0abd-4602-b3fc-361caceedff2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>